--- a/static/templates/IT_KPI_Dashboard.xlsx
+++ b/static/templates/IT_KPI_Dashboard.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Information Technology KPI Dashboard - User Guide &amp; Instructions</t>
+          <t>Artificial Intelligence and Machine Learning KPI Dashboard - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -655,7 +654,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
@@ -683,12 +681,12 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>System Uptime Percentage</t>
+          <t>Model Accuracy Rate</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for cloud computing and infrastructure automation</t>
+          <t>Key performance indicator for artificial intelligence and machine learning</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
@@ -739,7 +737,7 @@
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for cloud computing and infrastructure automation</t>
+          <t>Key performance indicator for artificial intelligence and machine learning</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
@@ -773,7 +771,7 @@
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for cloud computing and infrastructure automation</t>
+          <t>Key performance indicator for artificial intelligence and machine learning</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -782,7 +780,6 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
@@ -832,7 +829,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
@@ -921,7 +917,6 @@
         </is>
       </c>
     </row>
-    <row r="40"/>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
@@ -1014,7 +1009,6 @@
         </is>
       </c>
     </row>
-    <row r="47"/>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
@@ -1071,8 +1065,6 @@
         </is>
       </c>
     </row>
-    <row r="56"/>
-    <row r="57"/>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
@@ -1176,14 +1168,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>INFORMATION TECHNOLOGY - KPI DASHBOARD</t>
+          <t>ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING - KPI DASHBOARD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: Cloud Infrastructure Migration</t>
+          <t>Project: AI/ML Implementation</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1193,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1274,7 +1265,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>System Uptime Percentage</t>
+          <t>Model Accuracy Rate</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1305,7 +1296,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Chief Data Officer</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1315,7 +1306,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1318,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mean Time To Repair (MTTR)</t>
+          <t>Data Quality Score</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1358,7 +1349,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1368,7 +1359,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1371,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deployment Frequency</t>
+          <t>User Adoption Rate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1411,7 +1402,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1421,7 +1412,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1455,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>System Administrators</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1474,7 +1465,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1518,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1571,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1614,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Chief Data Officer</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1633,7 +1624,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1667,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1686,7 +1677,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1720,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1739,7 +1730,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1773,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>System Administrators</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1792,7 +1783,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1836,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1889,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1932,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Chief Data Officer</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1951,7 +1942,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1985,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2004,7 +1995,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2038,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2057,7 +2048,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Critical KPI for Information Technology success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>

--- a/static/templates/IT_KPI_Dashboard.xlsx
+++ b/static/templates/IT_KPI_Dashboard.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning KPI Dashboard - User Guide &amp; Instructions</t>
+          <t>Information Technology KPI Dashboard - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -587,6 +587,7 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -654,6 +655,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
@@ -681,12 +683,12 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Model Accuracy Rate</t>
+          <t>System Uptime Percentage</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for artificial intelligence and machine learning</t>
+          <t>Key performance indicator for cloud computing and infrastructure automation</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
@@ -737,7 +739,7 @@
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for artificial intelligence and machine learning</t>
+          <t>Key performance indicator for cloud computing and infrastructure automation</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
@@ -771,7 +773,7 @@
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>Key performance indicator for artificial intelligence and machine learning</t>
+          <t>Key performance indicator for cloud computing and infrastructure automation</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -780,6 +782,7 @@
         </is>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
@@ -829,6 +832,7 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
@@ -917,6 +921,7 @@
         </is>
       </c>
     </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
@@ -1009,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
@@ -1065,6 +1071,8 @@
         </is>
       </c>
     </row>
+    <row r="56"/>
+    <row r="57"/>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
@@ -1168,14 +1176,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING - KPI DASHBOARD</t>
+          <t>INFORMATION TECHNOLOGY - KPI DASHBOARD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: AI/ML Implementation</t>
+          <t>Project: Cloud Infrastructure Migration</t>
         </is>
       </c>
     </row>
@@ -1193,6 +1201,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1265,7 +1274,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Model Accuracy Rate</t>
+          <t>System Uptime Percentage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1296,7 +1305,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Chief Data Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1306,7 +1315,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1327,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Data Quality Score</t>
+          <t>Mean Time To Repair (MTTR)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1349,7 +1358,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1359,7 +1368,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1380,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>User Adoption Rate</t>
+          <t>Deployment Frequency</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1402,7 +1411,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1412,7 +1421,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1464,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1465,7 +1474,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1527,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1623,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Chief Data Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1624,7 +1633,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1676,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1729,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1730,7 +1739,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1782,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1783,7 +1792,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1845,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Chief Data Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1942,7 +1951,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1994,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1995,7 +2004,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2047,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2048,7 +2057,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Information Technology success</t>
         </is>
       </c>
     </row>
